--- a/Data/EC/NIT-9007994521.xlsx
+++ b/Data/EC/NIT-9007994521.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAF788AF-DCB1-41A0-8ECD-C1F974942930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{968B6E62-87FB-423C-9C09-08DA4B8B280A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{82573F89-8116-4A05-B059-1B52DF8F5A71}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{830B2FDD-1975-4F0D-AEB5-E2F0A57BEE69}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="73">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,25 +65,13 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1143349704</t>
-  </si>
-  <si>
-    <t>AURA CRISTINA MUJICA GUERRERO</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>1002201537</t>
-  </si>
-  <si>
-    <t>AITAL BOLAÑO ORTEGA</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2505</t>
+    <t>1143415751</t>
+  </si>
+  <si>
+    <t>ALBERTO JAVIER PATERNINA GARCIA</t>
+  </si>
+  <si>
+    <t>1811</t>
   </si>
   <si>
     <t>1143411588</t>
@@ -92,106 +80,121 @@
     <t>LUIS ANGEL MENDOZA MONTEMIRANDA</t>
   </si>
   <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
     <t>2107</t>
   </si>
   <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1005618529</t>
-  </si>
-  <si>
-    <t>LEIBER ENRIQUE GONZALEZ PATERNINA</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>43758600</t>
-  </si>
-  <si>
-    <t>KARLA KATHERINNE MILIANI ECHEVERRI</t>
-  </si>
-  <si>
-    <t>1143415751</t>
-  </si>
-  <si>
-    <t>ALBERTO JAVIER PATERNINA GARCIA</t>
-  </si>
-  <si>
-    <t>1811</t>
+    <t>1007968859</t>
+  </si>
+  <si>
+    <t>NATALIA GODOY DAZA</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>1003720001</t>
+  </si>
+  <si>
+    <t>LUZ NELLY GUERRA PLATA</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
   </si>
   <si>
     <t>1143410046</t>
@@ -200,73 +203,25 @@
     <t>LAURA DANIELA MEZA HERAZO</t>
   </si>
   <si>
+    <t>2302</t>
+  </si>
+  <si>
     <t>2303</t>
   </si>
   <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>1007968859</t>
-  </si>
-  <si>
-    <t>NATALIA GODOY DAZA</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>1003720001</t>
-  </si>
-  <si>
-    <t>LUZ NELLY GUERRA PLATA</t>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
   </si>
   <si>
     <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -365,7 +320,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -378,9 +335,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -580,23 +535,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -624,10 +579,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -680,7 +635,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F294D4B-EFB9-FDDC-7D31-D643CD4267C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1301478D-D0C6-437C-CDC8-D5E4E13EDE88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1031,8 +986,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B396B521-99C0-432B-AF94-1B27859763AD}">
-  <dimension ref="B2:J78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A13B54-B8E1-4C51-B03C-A2ED82DB1FBF}">
+  <dimension ref="B2:J66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1043,7 +998,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1056,7 +1011,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1101,7 +1056,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1133,12 +1088,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1876425</v>
+        <v>1594991</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1149,17 +1104,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F13" s="5">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1186,13 +1141,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1209,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>6057</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1232,10 +1187,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>1898</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1255,10 +1210,10 @@
         <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>1898</v>
+        <v>33125</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1269,13 +1224,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F19" s="18">
         <v>33125</v>
@@ -1292,13 +1247,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F20" s="18">
         <v>33125</v>
@@ -1315,13 +1270,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>33125</v>
@@ -1338,13 +1293,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1361,13 +1316,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1384,13 +1339,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1407,13 +1362,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1430,13 +1385,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>33125</v>
@@ -1453,13 +1408,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
@@ -1476,13 +1431,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>33125</v>
@@ -1499,13 +1454,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>33125</v>
@@ -1522,13 +1477,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>33125</v>
@@ -1545,13 +1500,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>33125</v>
@@ -1568,13 +1523,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>33125</v>
@@ -1591,13 +1546,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>33125</v>
@@ -1614,13 +1569,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>33125</v>
@@ -1637,13 +1592,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>33125</v>
@@ -1660,13 +1615,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>33125</v>
@@ -1683,13 +1638,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>33125</v>
@@ -1706,13 +1661,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>33125</v>
@@ -1729,13 +1684,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>33125</v>
@@ -1752,19 +1707,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F40" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G40" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1775,19 +1730,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F41" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1798,19 +1753,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F42" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G42" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1821,19 +1776,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D43" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="F43" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1844,19 +1799,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F44" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G44" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1867,19 +1822,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F45" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G45" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1890,19 +1845,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F46" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G46" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1913,19 +1868,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F47" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G47" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1936,19 +1891,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F48" s="18">
-        <v>17845</v>
+        <v>40000</v>
       </c>
       <c r="G48" s="18">
-        <v>13383881</v>
+        <v>1000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1959,19 +1914,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D49" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F49" s="18">
-        <v>17845</v>
+        <v>40000</v>
       </c>
       <c r="G49" s="18">
-        <v>13383881</v>
+        <v>1000000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1982,19 +1937,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F50" s="18">
-        <v>17845</v>
+        <v>20000</v>
       </c>
       <c r="G50" s="18">
-        <v>13383881</v>
+        <v>1160000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2011,13 +1966,13 @@
         <v>50</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G51" s="18">
-        <v>877803</v>
+        <v>1160000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2028,16 +1983,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F52" s="18">
-        <v>46400</v>
+        <v>15467</v>
       </c>
       <c r="G52" s="18">
         <v>1440000</v>
@@ -2051,19 +2006,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F53" s="18">
-        <v>15467</v>
+        <v>40000</v>
       </c>
       <c r="G53" s="18">
-        <v>1440000</v>
+        <v>1160000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2074,19 +2029,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="F54" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G54" s="18">
-        <v>1000000</v>
+        <v>1440000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2097,19 +2052,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="F55" s="18">
         <v>40000</v>
       </c>
       <c r="G55" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2120,19 +2075,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D56" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>60</v>
       </c>
       <c r="F56" s="18">
         <v>40000</v>
       </c>
       <c r="G56" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2143,19 +2098,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F57" s="18">
         <v>40000</v>
       </c>
       <c r="G57" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2166,19 +2121,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F58" s="18">
         <v>40000</v>
       </c>
       <c r="G58" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2189,351 +2144,75 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F59" s="18">
         <v>40000</v>
       </c>
       <c r="G59" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F60" s="18">
+      <c r="B60" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="24">
         <v>40000</v>
       </c>
-      <c r="G60" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F61" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G61" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F62" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G62" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F63" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G63" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="16" t="s">
+      <c r="G60" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="32"/>
+      <c r="H65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F64" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G64" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F65" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G65" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66" s="16" t="s">
+      <c r="C66" s="32"/>
+      <c r="H66" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F66" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G66" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F67" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G67" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F68" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G68" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F69" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G69" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F70" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G70" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F71" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G71" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F72" s="24">
-        <v>20000</v>
-      </c>
-      <c r="G72" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="26"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" s="32"/>
-      <c r="H77" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" s="32"/>
-      <c r="H78" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H65:J65"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
